--- a/data/tehilim-data/15.xlsx
+++ b/data/tehilim-data/15.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
   <si>
     <t>original</t>
   </si>
@@ -58,31 +58,55 @@
     <t>кто пребудет</t>
   </si>
   <si>
-    <t>בְּהַר-קָדְשֶׁךָ</t>
-  </si>
-  <si>
-    <t>на горе святой Твоей</t>
+    <t>בְּהַר</t>
+  </si>
+  <si>
+    <t xml:space="preserve">на горе </t>
+  </si>
+  <si>
+    <t>קָדְשֶׁךָ</t>
+  </si>
+  <si>
+    <t>святой Твоей</t>
   </si>
   <si>
     <t>ב</t>
   </si>
   <si>
-    <t>הוֹלֵךְ תָּמִים</t>
-  </si>
-  <si>
-    <t>Ходящий непорочно</t>
-  </si>
-  <si>
-    <t>וּפֹעֵל צֶדֶק</t>
-  </si>
-  <si>
-    <t>и делающий правду</t>
-  </si>
-  <si>
-    <t>וְדֹבֵר אֱמֶת</t>
-  </si>
-  <si>
-    <t>и говорящий истину</t>
+    <t xml:space="preserve">הוֹלֵךְ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ходящий </t>
+  </si>
+  <si>
+    <t>תָּמִים</t>
+  </si>
+  <si>
+    <t>непорочно</t>
+  </si>
+  <si>
+    <t>וּפֹעֵל</t>
+  </si>
+  <si>
+    <t xml:space="preserve">и делающий </t>
+  </si>
+  <si>
+    <t>צֶדֶק</t>
+  </si>
+  <si>
+    <t>правду</t>
+  </si>
+  <si>
+    <t xml:space="preserve">וְדֹבֵר </t>
+  </si>
+  <si>
+    <t xml:space="preserve">и говорящий </t>
+  </si>
+  <si>
+    <t>אֱמֶת</t>
+  </si>
+  <si>
+    <t>истину</t>
   </si>
   <si>
     <t>בִּלְבָבוֹ</t>
@@ -106,10 +130,16 @@
     <t>языком своим</t>
   </si>
   <si>
-    <t>לֹא-עָשָׂה לְרֵעֵהוּ</t>
-  </si>
-  <si>
-    <t>не делает ближнему своему</t>
+    <t>לֹא-עָשָׂה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">не делает </t>
+  </si>
+  <si>
+    <t>לְרֵעֵהוּ</t>
+  </si>
+  <si>
+    <t>ближнему своему</t>
   </si>
   <si>
     <t>רָעָה</t>
@@ -124,10 +154,16 @@
     <t>и поношение</t>
   </si>
   <si>
-    <t>לֹא-נָשָׂא עַל-קְרֹבוֹ</t>
-  </si>
-  <si>
-    <t>не возводит на ближнего</t>
+    <t xml:space="preserve">לֹא-נָשָׂא </t>
+  </si>
+  <si>
+    <t xml:space="preserve">не возводит </t>
+  </si>
+  <si>
+    <t>עַל-קְרֹבוֹ</t>
+  </si>
+  <si>
+    <t>на ближнего</t>
   </si>
   <si>
     <t>ד</t>
@@ -151,10 +187,13 @@
     <t>скверный</t>
   </si>
   <si>
-    <t>וְאֶת-יְרֵאֵי יְהוָה</t>
-  </si>
-  <si>
-    <t>а боящихся Господа</t>
+    <t xml:space="preserve">וְאֶת-יְרֵאֵי </t>
+  </si>
+  <si>
+    <t xml:space="preserve">а боящихся </t>
+  </si>
+  <si>
+    <t>Господа</t>
   </si>
   <si>
     <t>יְכַבֵּד</t>
@@ -163,16 +202,28 @@
     <t>почитает</t>
   </si>
   <si>
-    <t>נִשְׁבַּע לְהָרַע</t>
-  </si>
-  <si>
-    <t>клянется, даже в ущерб</t>
-  </si>
-  <si>
-    <t>וְלֹא יָמִר</t>
-  </si>
-  <si>
-    <t>и не изменяет</t>
+    <t>נִשְׁבַּע</t>
+  </si>
+  <si>
+    <t>клянется</t>
+  </si>
+  <si>
+    <t>לְהָרַע</t>
+  </si>
+  <si>
+    <t>даже в ущерб</t>
+  </si>
+  <si>
+    <t>וְלֹא</t>
+  </si>
+  <si>
+    <t xml:space="preserve">и не </t>
+  </si>
+  <si>
+    <t>יָמִר</t>
+  </si>
+  <si>
+    <t>изменяет</t>
   </si>
   <si>
     <t>ה</t>
@@ -184,10 +235,16 @@
     <t>Серебра своего</t>
   </si>
   <si>
-    <t>לֹא-נָתַן בְּנֶשֶׁךְ</t>
-  </si>
-  <si>
-    <t>не дает в рост</t>
+    <t xml:space="preserve">לֹא-נָתַן </t>
+  </si>
+  <si>
+    <t xml:space="preserve">не дает </t>
+  </si>
+  <si>
+    <t>בְּנֶשֶׁךְ</t>
+  </si>
+  <si>
+    <t>в рост</t>
   </si>
   <si>
     <t>וְשֹׁחַד</t>
@@ -202,10 +259,16 @@
     <t>на невинного</t>
   </si>
   <si>
-    <t>לֹא לָקָח</t>
-  </si>
-  <si>
-    <t>не берет</t>
+    <t>לֹא</t>
+  </si>
+  <si>
+    <t xml:space="preserve">не </t>
+  </si>
+  <si>
+    <t>לָקָח</t>
+  </si>
+  <si>
+    <t>берет</t>
   </si>
   <si>
     <t>עֹשֵׂה-אֵלֶּה</t>
@@ -214,10 +277,13 @@
     <t>Делает это</t>
   </si>
   <si>
-    <t>לֹא יִמּוֹט</t>
-  </si>
-  <si>
-    <t>не поколеблется</t>
+    <t xml:space="preserve">לֹא </t>
+  </si>
+  <si>
+    <t>יִמּוֹט</t>
+  </si>
+  <si>
+    <t>поколеблется</t>
   </si>
   <si>
     <t>לְעוֹלָם</t>
@@ -230,7 +296,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -242,13 +308,23 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -257,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -270,6 +346,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,17 +654,17 @@
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4">
-        <v>2.0</v>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2.0</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -596,10 +678,10 @@
       <c r="C12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="2"/>
@@ -614,47 +696,47 @@
       <c r="C14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="4">
-        <v>3.0</v>
+      <c r="B15" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>30</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="4" t="s">
         <v>34</v>
+      </c>
+      <c r="B19" s="4">
+        <v>3.0</v>
       </c>
       <c r="C19" s="2"/>
     </row>
@@ -680,62 +762,62 @@
       <c r="A22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="4">
-        <v>4.0</v>
+      <c r="B22" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>41</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>49</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="4" t="s">
         <v>51</v>
+      </c>
+      <c r="B28" s="4">
+        <v>4.0</v>
       </c>
       <c r="C28" s="2"/>
     </row>
@@ -752,34 +834,34 @@
       <c r="A30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="4">
-        <v>5.0</v>
+      <c r="B30" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C33" s="2"/>
@@ -803,10 +885,10 @@
       <c r="C35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C36" s="2"/>
@@ -821,13 +903,121 @@
       <c r="C37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C38" s="2"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
